--- a/jarduino2/jard_485_slave/board/jard_rs485_slave_at328/jard_rs485_slave_at328.xlsx
+++ b/jarduino2/jard_485_slave/board/jard_rs485_slave_at328/jard_rs485_slave_at328.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\GITHUB\modules_uino\jarduino2\jard_485_slave\board\jard_rs485_slave_at328\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABBAE8E-825E-432F-80C7-3732158C5A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7FD792B2-EB68-4997-A509-04837776AFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="jard_rs485_slave_at328" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="147">
   <si>
     <t>Collated Components:</t>
   </si>
@@ -61,19 +61,40 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Footprint</t>
+    <t>Description</t>
   </si>
   <si>
     <t>Fabricant</t>
   </si>
   <si>
+    <t>Fournisseur</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>RefFabricant</t>
+  </si>
+  <si>
+    <t>RefFournisseur</t>
+  </si>
+  <si>
     <t>C1, C4, C7, C8, C10, C11, C12</t>
   </si>
   <si>
     <t>1nF</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0603_1608Metric</t>
+    <t>Condensateur cÃ©ramique 1nF</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>C0603X102J5GACAUTO</t>
   </si>
   <si>
     <t>C2</t>
@@ -82,10 +103,13 @@
     <t>10ÂµF</t>
   </si>
   <si>
-    <t>Capacitor_SMD:CP_Elec_5x5.9</t>
-  </si>
-  <si>
-    <t>CHEMI-CON: EMZA350ADA100ME61G</t>
+    <t>Condensateur chimique 10ÂµF</t>
+  </si>
+  <si>
+    <t>CHEMI-CON</t>
+  </si>
+  <si>
+    <t>EMZA350ADA100ME61G</t>
   </si>
   <si>
     <t>C3, C5, C6, C9, C13</t>
@@ -94,13 +118,22 @@
     <t>100nF</t>
   </si>
   <si>
+    <t>Condensateur cÃ©ramique 100nF</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
     <t>LED</t>
   </si>
   <si>
-    <t>LED_SMD:LED_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <t>LED rouge 805</t>
+  </si>
+  <si>
+    <t>ROHM</t>
+  </si>
+  <si>
+    <t>SML-D14VWT86C</t>
   </si>
   <si>
     <t>D2</t>
@@ -109,25 +142,28 @@
     <t>SR560</t>
   </si>
   <si>
-    <t>Diode_THT:D_A-405_P7.62mm_Horizontal</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>Diode de redressement SR560</t>
+  </si>
+  <si>
+    <t>MULTICOMP PRO</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>LED_THT:LED_D3.0mm_FlatTop</t>
-  </si>
-  <si>
-    <t>D5, D6, D7, D8, D9, D10</t>
+    <t>LED rouge 3mm</t>
+  </si>
+  <si>
+    <t>MP000451</t>
+  </si>
+  <si>
+    <t>D5, D6, D7, D8, D10</t>
   </si>
   <si>
     <t>BAV99</t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:SOT-23</t>
+    <t>Diodes signaux faibles</t>
   </si>
   <si>
     <t>D11, D12</t>
@@ -136,13 +172,25 @@
     <t>SD12_SOD323</t>
   </si>
   <si>
-    <t>Diode_SMD:D_SOD-323</t>
+    <t>Diodes TVS simples</t>
+  </si>
+  <si>
+    <t>DIODES INC</t>
+  </si>
+  <si>
+    <t>SD12-7</t>
+  </si>
+  <si>
+    <t>3945781RL</t>
   </si>
   <si>
     <t>D13</t>
   </si>
   <si>
-    <t>Diode_THT:D_A-405_P5.08mm_Vertical_KathodeUp</t>
+    <t>1N4007G</t>
+  </si>
+  <si>
+    <t>Diode de redressement</t>
   </si>
   <si>
     <t>D15</t>
@@ -151,13 +199,28 @@
     <t>SM712_SOT23</t>
   </si>
   <si>
+    <t>Diode TVS</t>
+  </si>
+  <si>
+    <t>SEMTECH</t>
+  </si>
+  <si>
+    <t>SM712.TCT</t>
+  </si>
+  <si>
+    <t>1456395RL</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
     <t>BUS_IN</t>
   </si>
   <si>
-    <t>TerminalBlock_Phoenix:TerminalBlock_Phoenix_MPT-0,5-4-2.54_1x04_P2.54mm_Horizontal</t>
+    <t>Bornier 4 contacts 2.54mm</t>
+  </si>
+  <si>
+    <t>PHOENIX CONTACT</t>
   </si>
   <si>
     <t>J2</t>
@@ -172,7 +235,7 @@
     <t>DÃ©bit</t>
   </si>
   <si>
-    <t>TerminalBlock_Phoenix:TerminalBlock_Phoenix_MPT-0,5-3-2.54_1x03_P2.54mm_Horizontal</t>
+    <t>Bornier 3 contacts 2.54mm</t>
   </si>
   <si>
     <t>J4</t>
@@ -187,7 +250,7 @@
     <t>EV1</t>
   </si>
   <si>
-    <t>TerminalBlock_Phoenix:TerminalBlock_Phoenix_MPT-0,5-2-2.54_1x02_P2.54mm_Horizontal</t>
+    <t>Bornier 2 contacts 2.54mm</t>
   </si>
   <si>
     <t>J7</t>
@@ -196,31 +259,61 @@
     <t>ISCP</t>
   </si>
   <si>
-    <t>bpc:BPC_ISCP_CMS</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q4</t>
+    <t>Connecteur Header 6 broches</t>
+  </si>
+  <si>
+    <t>AMPHENOL</t>
+  </si>
+  <si>
+    <t>95278-101-06LF</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
   <si>
     <t>BPC_FMMT38C</t>
   </si>
   <si>
-    <t>bpc:BPC_SOT-23-3</t>
+    <t>Transistor NPN</t>
+  </si>
+  <si>
+    <t>DIODES</t>
+  </si>
+  <si>
+    <t>FMMT38C</t>
   </si>
   <si>
     <t>Q6</t>
   </si>
   <si>
-    <t>BPC_IPP034N03L</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_THT:TO-220-3_Vertical</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R7, R8, R9, R10</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+    <t>P03P4L-04</t>
+  </si>
+  <si>
+    <t>MOS type P</t>
+  </si>
+  <si>
+    <t>INFINEON TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>Radiospares</t>
+  </si>
+  <si>
+    <t>IPP80P03P4L04AKSA1</t>
+  </si>
+  <si>
+    <t>823-5554P</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R7, R8, R9</t>
+  </si>
+  <si>
+    <t>RÃ©sistance 100 Ohms</t>
+  </si>
+  <si>
+    <t>VISHAY</t>
+  </si>
+  <si>
+    <t>CRCW0805100RFKTA</t>
   </si>
   <si>
     <t>R4</t>
@@ -229,52 +322,82 @@
     <t>40k</t>
   </si>
   <si>
-    <t>R5, R6, R15, R17</t>
+    <t>RÃ©sistance 40 kOhms</t>
+  </si>
+  <si>
+    <t>CRCW080540K0FKEA</t>
+  </si>
+  <si>
+    <t>R5, R15, R17</t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>0.1</t>
+    <t>RÃ©sistance 100 kOhms</t>
+  </si>
+  <si>
+    <t>MCHVR05JTEW1003</t>
   </si>
   <si>
     <t>R12, R13</t>
   </si>
   <si>
+    <t>RÃ©sistance 220 Ohms</t>
+  </si>
+  <si>
+    <t>MCMR06X224 JTL</t>
+  </si>
+  <si>
     <t>R26</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
+    <t>RÃ©sistance 1kOhms</t>
+  </si>
+  <si>
+    <t>MC0100W060311K</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
     <t>RDS-16S-74385-SMT</t>
   </si>
   <si>
-    <t>bpc:BPC_RDS-16S-74385-SMT</t>
-  </si>
-  <si>
-    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15</t>
+    <t>Switch rotatif 16 positions</t>
+  </si>
+  <si>
+    <t>CUI Devices</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>RDS-16S-74385-SMT-TR</t>
+  </si>
+  <si>
+    <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP15</t>
   </si>
   <si>
     <t>TestPoint</t>
   </si>
   <si>
-    <t>TestPoint:TestPoint_Pad_D1.5mm</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>BPC_Alim5V</t>
   </si>
   <si>
-    <t>bpc:BPC_Alim5V</t>
+    <t>Module d'alimentation 12V -&gt; 5V</t>
+  </si>
+  <si>
+    <t>Ali express</t>
+  </si>
+  <si>
+    <t>MINI560</t>
   </si>
   <si>
     <t>U2</t>
@@ -283,7 +406,13 @@
     <t>MAX485E</t>
   </si>
   <si>
-    <t>Package_SO:SO-8_3.9x4.9mm_P1.27mm</t>
+    <t>Driver RS485</t>
+  </si>
+  <si>
+    <t>ANALOG DEVICES</t>
+  </si>
+  <si>
+    <t>MAX3085CSA+T</t>
   </si>
   <si>
     <t>U5</t>
@@ -292,7 +421,13 @@
     <t>ATmega328P-A</t>
   </si>
   <si>
-    <t>Package_QFP:TQFP-32_7x7mm_P0.8mm</t>
+    <t>Microcontrolleur ATMEGA328P</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AN</t>
   </si>
   <si>
     <t>U6</t>
@@ -301,7 +436,10 @@
     <t>BPC_DHT22</t>
   </si>
   <si>
-    <t>bpc:BPC_DHT22</t>
+    <t>Module de tempÃ©rature Arduino</t>
+  </si>
+  <si>
+    <t>DTH22</t>
   </si>
   <si>
     <t>Y1</t>
@@ -310,48 +448,25 @@
     <t>Resonator</t>
   </si>
   <si>
-    <t>Crystal:Resonator_SMD_Murata_CSTxExxV-3Pin_3.0x1.1mm_HandSoldering</t>
-  </si>
-  <si>
-    <t>Fournisseur</t>
-  </si>
-  <si>
-    <t>Farnell: 1698723</t>
-  </si>
-  <si>
-    <t>Farnell: 2519414</t>
-  </si>
-  <si>
-    <t>Digikey: RDS-16S-74385-SMT
-RS: 179-6961</t>
-  </si>
-  <si>
-    <t>CUI Devices: RDS-16S-74385-SMT
-Nidec: SH-7050MB</t>
-  </si>
-  <si>
-    <t>Farnell: 2443178</t>
-  </si>
-  <si>
-    <t>Microchip: ATMEGA328P-AN</t>
-  </si>
-  <si>
-    <t>Farnell: 4127618</t>
-  </si>
-  <si>
-    <t>Murata: CSTNE16M0V530000R0</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>Ali Express</t>
+    <t>RÃ©sonateur 16 MHz / 15 pF</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>CSTNE16M0V530000R0</t>
+  </si>
+  <si>
+    <t>Prix total</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -784,21 +899,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -844,16 +944,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1228,27 +1322,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="82.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1256,15 +1346,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>45382.933865740742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45388.481493055559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1280,655 +1370,1114 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>0.42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>2219417</v>
+      </c>
+      <c r="K10">
+        <f>B10*H10</f>
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>1698723</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K39" si="0">B11*H11</f>
+        <v>0.63119999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>0.42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <v>2219417</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>2829438</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.49919999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14">
+        <v>2675411</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.58440000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>3.78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15">
+        <v>3130206</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16">
+        <v>2675152</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>0.12720000000000001</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.25440000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>0.12720000000000001</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18">
+        <v>2675047</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.12720000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>1.1963999999999999</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1.1963999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>2.532</v>
+      </c>
+      <c r="I20">
+        <v>1725672</v>
+      </c>
+      <c r="J20">
+        <v>3041414</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2.532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>2.532</v>
+      </c>
+      <c r="I21">
+        <v>1725672</v>
+      </c>
+      <c r="J21">
+        <v>3041414</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>2.532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="I22">
+        <v>1725669</v>
+      </c>
+      <c r="J22">
+        <v>3041360</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>3.4079999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="I23">
+        <v>1725669</v>
+      </c>
+      <c r="J23">
+        <v>3041360</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>3.4079999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>2.472</v>
+      </c>
+      <c r="I24">
+        <v>1725656</v>
+      </c>
+      <c r="J24">
+        <v>3041359</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>2.472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>0.57479999999999998</v>
+      </c>
+      <c r="I25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25">
+        <v>3882224</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0.57479999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>1.1843999999999999</v>
+      </c>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26">
+        <v>9526315</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>1.1843999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27">
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>2.7069999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="I28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="J28">
+        <v>1652906</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>0.31320000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29">
+        <v>3975002</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>5.0500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30">
+        <v>2826073</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0.15660000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>220</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31">
+        <v>2073437</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32">
+        <v>2845750</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33">
+        <v>2.76</v>
+      </c>
+      <c r="I33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>26</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>125</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36">
+        <v>2798956</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>28</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37">
+        <v>3.12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37">
+        <v>2443178</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>29</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="J38" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>30</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>19</v>
-      </c>
-      <c r="B28" s="2">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="5">
-        <v>100</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>20</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>21</v>
-      </c>
-      <c r="B30" s="2">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>22</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="5">
-        <v>220</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>24</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>25</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>26</v>
-      </c>
-      <c r="B35" s="2">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>28</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>29</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>31</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>104</v>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>0.2616</v>
+      </c>
+      <c r="I39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39">
+        <v>4127618</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0.2616</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K40" s="2">
+        <f>SUM(K10:K39)</f>
+        <v>44.606499999999997</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>